--- a/Project 2 - Transportation/Main Project/All_Results.xlsx
+++ b/Project 2 - Transportation/Main Project/All_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Python\Machine-Learning-Projects\Project 2 - Transportation\Main Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BA8434-C41C-435D-B272-47EA625DD4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C781C6-E691-4414-AC02-1EE003F0D423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="9">
   <si>
     <t>GM_exp</t>
   </si>
@@ -150,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -289,12 +289,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -476,6 +500,8 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1489,23 +1515,24 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>RMSE!$B$2</c:f>
+              <c:f>RMSE!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GM_exp</c:v>
+                  <c:v>Neural_Net</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1516,11 +1543,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1566,183 +1593,56 @@
                   <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>RMSE!$C$2:$M$2</c:f>
+              <c:f>RMSE!$C$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.26255453010217422</c:v>
+                  <c:v>7.2911809899999002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25588924904304039</c:v>
+                  <c:v>5.9464994000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28164320747939048</c:v>
+                  <c:v>1.0010202229999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26668071263813592</c:v>
+                  <c:v>1.304606891E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26181662991758908</c:v>
+                  <c:v>1.24645997199999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25293592229673489</c:v>
+                  <c:v>5.8072649799999002E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27447794582895402</c:v>
+                  <c:v>9.51356301E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2732280359298519</c:v>
+                  <c:v>1.424377242E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31432190815635591</c:v>
+                  <c:v>2.7741699799999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3844243915044076</c:v>
+                  <c:v>0.13147457055</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.406917037669147</c:v>
+                  <c:v>0.16399405653999999</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0F5-4635-826C-2BF76CD3B3E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RMSE!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GM_power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>RMSE!$C$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>RMSE!$C$3:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.26354992658429738</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2459144279315551</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2856614799310665</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2576056607517867</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26185467228614201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2462263878782586</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.28477271296293749</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28740392891287009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.3257592134169115</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.36869076965250308</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.43737742267704249</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B0F5-4635-826C-2BF76CD3B3E2}"/>
+              <c16:uniqueId val="{00000002-B0F5-4635-826C-2BF76CD3B3E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1760,21 +1660,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>RMSE!$B$4</c15:sqref>
+                          <c15:sqref>RMSE!$B$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Neural_Net</c:v>
+                        <c:v>GM_exp</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1782,7 +1682,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -1793,11 +1693,11 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -1856,7 +1756,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>RMSE!$C$4:$M$4</c15:sqref>
+                          <c15:sqref>RMSE!$C$2:$M$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1864,37 +1764,37 @@
                       <c:formatCode>0.0000</c:formatCode>
                       <c:ptCount val="11"/>
                       <c:pt idx="0">
-                        <c:v>7.2911809899999002E-3</c:v>
+                        <c:v>0.26255453010217422</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.9464994000000002E-3</c:v>
+                        <c:v>0.25588924904304039</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.0010202229999999E-2</c:v>
+                        <c:v>0.28164320747939048</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.304606891E-2</c:v>
+                        <c:v>0.26668071263813592</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1.24645997199999E-2</c:v>
+                        <c:v>0.26181662991758908</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5.8072649799999002E-3</c:v>
+                        <c:v>0.25293592229673489</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>9.51356301E-3</c:v>
+                        <c:v>0.27447794582895402</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1.424377242E-2</c:v>
+                        <c:v>0.2732280359298519</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2.7741699799999998E-2</c:v>
+                        <c:v>0.31432190815635591</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.13147457055</c:v>
+                        <c:v>0.3844243915044076</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.16399405653999999</c:v>
+                        <c:v>0.406917037669147</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1902,7 +1802,156 @@
                 <c:smooth val="1"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-B0F5-4635-826C-2BF76CD3B3E2}"/>
+                    <c16:uniqueId val="{00000000-B0F5-4635-826C-2BF76CD3B3E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>RMSE!$B$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GM_power</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>RMSE!$C$1:$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>RMSE!$C$3:$M$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.26354992658429738</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2459144279315551</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2856614799310665</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.2576056607517867</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.26185467228614201</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.2462263878782586</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.28477271296293749</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.28740392891287009</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.3257592134169115</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.36869076965250308</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.43737742267704249</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-B0F5-4635-826C-2BF76CD3B3E2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1913,7 +1962,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>RMSE!$B$5</c15:sqref>
@@ -1954,7 +2003,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>RMSE!$C$1:$M$1</c15:sqref>
@@ -2002,7 +2051,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>RMSE!$C$5:$M$5</c15:sqref>
@@ -2049,7 +2098,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-B0F5-4635-826C-2BF76CD3B3E2}"/>
                   </c:ext>
@@ -2452,23 +2501,24 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>RMSE!$B$7</c:f>
+              <c:f>RMSE!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GM_exp</c:v>
+                  <c:v>Neural_Net</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2479,11 +2529,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2529,183 +2579,56 @@
                   <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>RMSE!$C$7:$M$7</c:f>
+              <c:f>RMSE!$C$9:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.13147606604185691</c:v>
+                  <c:v>6.9180586000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1539913361597004</c:v>
+                  <c:v>1.1200767329999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1565234345817243</c:v>
+                  <c:v>1.4638981810000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1551905170381066</c:v>
+                  <c:v>1.599258038E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16174391807995389</c:v>
+                  <c:v>2.5209902609998999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16827802332887151</c:v>
+                  <c:v>1.747938681E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16637791210614611</c:v>
+                  <c:v>2.7470825280000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1651519145690534</c:v>
+                  <c:v>2.0482382289999002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19022656169394539</c:v>
+                  <c:v>1.5178175733E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23779749568365069</c:v>
+                  <c:v>3.09456518799999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.26651148677659808</c:v>
+                  <c:v>8.9935211249999994E-2</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-527B-415A-92BD-FA41F28ACC64}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RMSE!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GM_power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>RMSE!$C$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>RMSE!$C$8:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.13116816436149581</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1536481188455141</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15700014306360621</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15609261360557899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16137685799881291</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1694919748812487</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1674258946950562</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1645131479560365</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1909204737999407</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2347972943644358</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.26523567556447952</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-527B-415A-92BD-FA41F28ACC64}"/>
+              <c16:uniqueId val="{00000002-527B-415A-92BD-FA41F28ACC64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2723,21 +2646,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>RMSE!$B$9</c15:sqref>
+                          <c15:sqref>RMSE!$B$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Neural_Net</c:v>
+                        <c:v>GM_exp</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2745,7 +2668,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -2756,11 +2679,11 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -2819,7 +2742,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>RMSE!$C$9:$M$9</c15:sqref>
+                          <c15:sqref>RMSE!$C$7:$M$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2827,37 +2750,37 @@
                       <c:formatCode>0.0000</c:formatCode>
                       <c:ptCount val="11"/>
                       <c:pt idx="0">
-                        <c:v>6.9180586000000001E-4</c:v>
+                        <c:v>0.13147606604185691</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.1200767329999999E-3</c:v>
+                        <c:v>0.1539913361597004</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.4638981810000001E-3</c:v>
+                        <c:v>0.1565234345817243</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.599258038E-3</c:v>
+                        <c:v>0.1551905170381066</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2.5209902609998999E-3</c:v>
+                        <c:v>0.16174391807995389</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1.747938681E-3</c:v>
+                        <c:v>0.16827802332887151</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2.7470825280000001E-3</c:v>
+                        <c:v>0.16637791210614611</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2.0482382289999002E-3</c:v>
+                        <c:v>0.1651519145690534</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1.5178175733E-2</c:v>
+                        <c:v>0.19022656169394539</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>3.09456518799999E-2</c:v>
+                        <c:v>0.23779749568365069</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>8.9935211249999994E-2</c:v>
+                        <c:v>0.26651148677659808</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2865,7 +2788,156 @@
                 <c:smooth val="1"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-527B-415A-92BD-FA41F28ACC64}"/>
+                    <c16:uniqueId val="{00000000-527B-415A-92BD-FA41F28ACC64}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>RMSE!$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GM_power</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>RMSE!$C$1:$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>RMSE!$C$8:$M$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.13116816436149581</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1536481188455141</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.15700014306360621</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.15609261360557899</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.16137685799881291</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.1694919748812487</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.1674258946950562</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.1645131479560365</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1909204737999407</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.2347972943644358</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.26523567556447952</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-527B-415A-92BD-FA41F28ACC64}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2876,7 +2948,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>RMSE!$B$10</c15:sqref>
@@ -2917,7 +2989,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>RMSE!$C$1:$M$1</c15:sqref>
@@ -2965,7 +3037,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>RMSE!$C$10:$M$10</c15:sqref>
@@ -3012,7 +3084,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-527B-415A-92BD-FA41F28ACC64}"/>
                   </c:ext>
@@ -3415,23 +3487,24 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>RMSE!$B$12</c:f>
+              <c:f>RMSE!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GM_exp</c:v>
+                  <c:v>Neural_Net</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3442,11 +3515,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3492,183 +3565,56 @@
                   <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>RMSE!$C$12:$M$12</c:f>
+              <c:f>RMSE!$C$14:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.10336696960885119</c:v>
+                  <c:v>1.26310951E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1156965705825608</c:v>
+                  <c:v>1.79093072E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10906652400070579</c:v>
+                  <c:v>1.5516943639999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1152626660202152</c:v>
+                  <c:v>1.8518260880000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1336324885524118</c:v>
+                  <c:v>3.4677497999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14055351834616711</c:v>
+                  <c:v>3.4690725499999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14996537349941519</c:v>
+                  <c:v>6.3310744100000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1580790017394266</c:v>
+                  <c:v>7.4257898899999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1930533208957782</c:v>
+                  <c:v>2.0528618959999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20919110855390799</c:v>
+                  <c:v>1.805163885E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22890915638408371</c:v>
+                  <c:v>3.6330289199999E-3</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD32-40E3-BCFD-CA95913C877F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RMSE!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GM_power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>RMSE!$C$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>RMSE!$C$13:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.1022311950791885</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1152583016607767</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1083253652032031</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1140991201984093</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1315135478214231</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14009382103893919</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15013351418694029</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15811101309912931</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1907449898866187</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2083833231996603</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2313035466368292</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DD32-40E3-BCFD-CA95913C877F}"/>
+              <c16:uniqueId val="{00000002-DD32-40E3-BCFD-CA95913C877F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3686,21 +3632,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>RMSE!$B$14</c15:sqref>
+                          <c15:sqref>RMSE!$B$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Neural_Net</c:v>
+                        <c:v>GM_exp</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3708,7 +3654,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -3719,11 +3665,11 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -3782,7 +3728,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>RMSE!$C$14:$M$14</c15:sqref>
+                          <c15:sqref>RMSE!$C$12:$M$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3790,37 +3736,37 @@
                       <c:formatCode>#,##0.0000</c:formatCode>
                       <c:ptCount val="11"/>
                       <c:pt idx="0">
-                        <c:v>1.26310951E-4</c:v>
+                        <c:v>0.10336696960885119</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.79093072E-4</c:v>
+                        <c:v>0.1156965705825608</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.5516943639999999E-4</c:v>
+                        <c:v>0.10906652400070579</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.8518260880000001E-4</c:v>
+                        <c:v>0.1152626660202152</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3.4677497999999998E-4</c:v>
+                        <c:v>0.1336324885524118</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>3.4690725499999999E-4</c:v>
+                        <c:v>0.14055351834616711</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6.3310744100000002E-4</c:v>
+                        <c:v>0.14996537349941519</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7.4257898899999998E-4</c:v>
+                        <c:v>0.1580790017394266</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2.0528618959999999E-3</c:v>
+                        <c:v>0.1930533208957782</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>1.805163885E-3</c:v>
+                        <c:v>0.20919110855390799</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>3.6330289199999E-3</c:v>
+                        <c:v>0.22890915638408371</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3828,7 +3774,156 @@
                 <c:smooth val="1"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-DD32-40E3-BCFD-CA95913C877F}"/>
+                    <c16:uniqueId val="{00000000-DD32-40E3-BCFD-CA95913C877F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>RMSE!$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GM_power</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>RMSE!$C$1:$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>RMSE!$C$13:$M$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0.0000</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.1022311950791885</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1152583016607767</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1083253652032031</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.1140991201984093</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.1315135478214231</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.14009382103893919</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.15013351418694029</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.15811101309912931</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1907449898866187</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.2083833231996603</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.2313035466368292</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-DD32-40E3-BCFD-CA95913C877F}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3839,7 +3934,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>RMSE!$B$15</c15:sqref>
@@ -3880,7 +3975,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>RMSE!$C$1:$M$1</c15:sqref>
@@ -3928,7 +4023,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>RMSE!$C$15:$M$15</c15:sqref>
@@ -3975,7 +4070,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-DD32-40E3-BCFD-CA95913C877F}"/>
                   </c:ext>
@@ -11969,23 +12064,24 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R2'!$B$2</c:f>
+              <c:f>'R2'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GM_exp</c:v>
+                  <c:v>Neural_Net</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -11996,11 +12092,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -12046,183 +12142,56 @@
                   <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R2'!$C$2:$M$2</c:f>
+              <c:f>'R2'!$C$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.74869539961637488</c:v>
+                  <c:v>0.63481076285573723</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73077655329582059</c:v>
+                  <c:v>0.6541267060110949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8204788513682908</c:v>
+                  <c:v>0.70216411582616733</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75315999028516722</c:v>
+                  <c:v>0.34736224714800917</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77162249316807185</c:v>
+                  <c:v>0.52417352947329809</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73145582004597132</c:v>
+                  <c:v>0.62643584156388432</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77838837160564123</c:v>
+                  <c:v>0.63479648346822193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75992828672324042</c:v>
+                  <c:v>0.43941579821195298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72482537859784346</c:v>
+                  <c:v>0.42876136728925929</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77179962615022557</c:v>
+                  <c:v>0.36954034588672108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.74723118355080198</c:v>
+                  <c:v>1.03625134926402E-2</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4C79-4AD0-9D1D-4E979E391334}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'R2'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GM_power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'R2'!$C$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'R2'!$C$3:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.74655271722875893</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77697859263215263</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.81061794444514668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.77990401254864872</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.77670366840327676</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74962755104345757</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.73714933573089492</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.70721655851074749</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6717100850149893</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.81108567701228262</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.57406356108714229</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4C79-4AD0-9D1D-4E979E391334}"/>
+              <c16:uniqueId val="{00000002-4C79-4AD0-9D1D-4E979E391334}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12240,21 +12209,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'R2'!$B$4</c15:sqref>
+                          <c15:sqref>'R2'!$B$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Neural_Net</c:v>
+                        <c:v>GM_exp</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12262,7 +12231,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -12273,11 +12242,11 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -12336,7 +12305,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'R2'!$C$4:$M$4</c15:sqref>
+                          <c15:sqref>'R2'!$C$2:$M$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12344,37 +12313,37 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="11"/>
                       <c:pt idx="0">
-                        <c:v>0.63481076285573723</c:v>
+                        <c:v>0.74869539961637488</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.6541267060110949</c:v>
+                        <c:v>0.73077655329582059</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.70216411582616733</c:v>
+                        <c:v>0.8204788513682908</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.34736224714800917</c:v>
+                        <c:v>0.75315999028516722</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.52417352947329809</c:v>
+                        <c:v>0.77162249316807185</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.62643584156388432</c:v>
+                        <c:v>0.73145582004597132</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.63479648346822193</c:v>
+                        <c:v>0.77838837160564123</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.43941579821195298</c:v>
+                        <c:v>0.75992828672324042</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.42876136728925929</c:v>
+                        <c:v>0.72482537859784346</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.36954034588672108</c:v>
+                        <c:v>0.77179962615022557</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>1.03625134926402E-2</c:v>
+                        <c:v>0.74723118355080198</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12382,7 +12351,156 @@
                 <c:smooth val="1"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-4C79-4AD0-9D1D-4E979E391334}"/>
+                    <c16:uniqueId val="{00000000-4C79-4AD0-9D1D-4E979E391334}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'R2'!$B$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GM_power</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'R2'!$C$1:$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'R2'!$C$3:$M$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.74655271722875893</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.77697859263215263</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.81061794444514668</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.77990401254864872</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.77670366840327676</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.74962755104345757</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.73714933573089492</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.70721655851074749</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.6717100850149893</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.81108567701228262</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.57406356108714229</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-4C79-4AD0-9D1D-4E979E391334}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -12393,7 +12511,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'R2'!$B$5</c15:sqref>
@@ -12434,7 +12552,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'R2'!$C$1:$M$1</c15:sqref>
@@ -12482,7 +12600,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'R2'!$C$5:$M$5</c15:sqref>
@@ -12529,7 +12647,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-4C79-4AD0-9D1D-4E979E391334}"/>
                   </c:ext>
@@ -12932,23 +13050,24 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R2'!$B$7</c:f>
+              <c:f>'R2'!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GM_exp</c:v>
+                  <c:v>Neural_Net</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -12959,11 +13078,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -13009,183 +13128,56 @@
                   <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R2'!$C$7:$M$7</c:f>
+              <c:f>'R2'!$C$9:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.91739137425684825</c:v>
+                  <c:v>0.86939407607889285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9044129292452292</c:v>
+                  <c:v>0.85640862199950696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91755237254150102</c:v>
+                  <c:v>0.86609912371465791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89247578678433614</c:v>
+                  <c:v>0.79954868224202369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92516492932663341</c:v>
+                  <c:v>0.86191523684812432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92618425025520579</c:v>
+                  <c:v>0.88098425928853474</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93788393882293364</c:v>
+                  <c:v>0.86592637728216193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.917691965884882</c:v>
+                  <c:v>0.82537915104259463</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92677238124374517</c:v>
+                  <c:v>0.80535901231235596</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89561448040547142</c:v>
+                  <c:v>0.46484075145724868</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91902308183936843</c:v>
+                  <c:v>4.6772373742857004E-3</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE21-49D8-956B-F5DEA170AD8F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'R2'!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GM_power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'R2'!$C$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'R2'!$C$8:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.91983201327266717</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90551014152261999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92004455255118955</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8911759758249499</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92561571575971757</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92619964536303157</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.93703540920082984</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92112617749427439</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.92671050998646443</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.90185020639397462</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.92094053605825799</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BE21-49D8-956B-F5DEA170AD8F}"/>
+              <c16:uniqueId val="{00000002-BE21-49D8-956B-F5DEA170AD8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13203,21 +13195,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'R2'!$B$9</c15:sqref>
+                          <c15:sqref>'R2'!$B$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Neural_Net</c:v>
+                        <c:v>GM_exp</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -13225,7 +13217,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -13236,11 +13228,11 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -13299,7 +13291,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'R2'!$C$9:$M$9</c15:sqref>
+                          <c15:sqref>'R2'!$C$7:$M$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -13307,37 +13299,37 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="11"/>
                       <c:pt idx="0">
-                        <c:v>0.86939407607889285</c:v>
+                        <c:v>0.91739137425684825</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.85640862199950696</c:v>
+                        <c:v>0.9044129292452292</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.86609912371465791</c:v>
+                        <c:v>0.91755237254150102</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.79954868224202369</c:v>
+                        <c:v>0.89247578678433614</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.86191523684812432</c:v>
+                        <c:v>0.92516492932663341</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.88098425928853474</c:v>
+                        <c:v>0.92618425025520579</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.86592637728216193</c:v>
+                        <c:v>0.93788393882293364</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.82537915104259463</c:v>
+                        <c:v>0.917691965884882</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.80535901231235596</c:v>
+                        <c:v>0.92677238124374517</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.46484075145724868</c:v>
+                        <c:v>0.89561448040547142</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>4.6772373742857004E-3</c:v>
+                        <c:v>0.91902308183936843</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13345,7 +13337,156 @@
                 <c:smooth val="1"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-BE21-49D8-956B-F5DEA170AD8F}"/>
+                    <c16:uniqueId val="{00000000-BE21-49D8-956B-F5DEA170AD8F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'R2'!$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GM_power</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'R2'!$C$1:$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'R2'!$C$8:$M$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.91983201327266717</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.90551014152261999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.92004455255118955</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.8911759758249499</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.92561571575971757</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.92619964536303157</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.93703540920082984</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.92112617749427439</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.92671050998646443</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.90185020639397462</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.92094053605825799</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-BE21-49D8-956B-F5DEA170AD8F}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -13356,7 +13497,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'R2'!$B$10</c15:sqref>
@@ -13397,7 +13538,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'R2'!$C$1:$M$1</c15:sqref>
@@ -13445,7 +13586,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'R2'!$C$10:$M$10</c15:sqref>
@@ -13492,7 +13633,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-BE21-49D8-956B-F5DEA170AD8F}"/>
                   </c:ext>
@@ -13895,23 +14036,24 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R2'!$B$12</c:f>
+              <c:f>'R2'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GM_exp</c:v>
+                  <c:v>Neural_Net</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -13922,11 +14064,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -13972,188 +14114,60 @@
                   <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R2'!$C$12:$M$12</c:f>
+              <c:f>'R2'!$C$14:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.1215948513377715</c:v>
+                  <c:v>0.31392127620528337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1192185777980584</c:v>
+                  <c:v>0.31487076042814999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12970200498338719</c:v>
+                  <c:v>0.32282486540779909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12140626384261791</c:v>
+                  <c:v>0.3274508537085975</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1147116533726581</c:v>
+                  <c:v>0.30508062060331359</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1241342406664529</c:v>
+                  <c:v>0.31642658225183001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1137210225752876</c:v>
+                  <c:v>0.25677682519084433</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13576775994652579</c:v>
+                  <c:v>0.27883241238044632</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12708742888902669</c:v>
+                  <c:v>0.19062457599943691</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12059757105531339</c:v>
+                  <c:v>5.55678023953661E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13887667870870071</c:v>
+                  <c:v>-0.32588585026822181</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C25-43B7-B2F7-63969E685A13}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'R2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GM_power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'R2'!$C$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'R2'!$C$13:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.1598246327971537</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12959797343676549</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15607350266604289</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15257609526549679</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17266012530111721</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12526264325483269</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1104002634308039</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12687250918231019</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1606246140642936</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11876564205310761</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.1960271509487399E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7C25-43B7-B2F7-63969E685A13}"/>
+              <c16:uniqueId val="{00000002-7C25-43B7-B2F7-63969E685A13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -14167,21 +14181,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'R2'!$B$14</c15:sqref>
+                          <c15:sqref>'R2'!$B$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Neural_Net</c:v>
+                        <c:v>GM_exp</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -14189,7 +14203,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -14200,11 +14214,11 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -14263,7 +14277,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'R2'!$C$14:$M$14</c15:sqref>
+                          <c15:sqref>'R2'!$C$12:$M$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -14271,37 +14285,37 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="11"/>
                       <c:pt idx="0">
-                        <c:v>0.31392127620528337</c:v>
+                        <c:v>0.1215948513377715</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.31487076042814999</c:v>
+                        <c:v>0.1192185777980584</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.32282486540779909</c:v>
+                        <c:v>0.12970200498338719</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.3274508537085975</c:v>
+                        <c:v>0.12140626384261791</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.30508062060331359</c:v>
+                        <c:v>0.1147116533726581</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.31642658225183001</c:v>
+                        <c:v>0.1241342406664529</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.25677682519084433</c:v>
+                        <c:v>0.1137210225752876</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.27883241238044632</c:v>
+                        <c:v>0.13576775994652579</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.19062457599943691</c:v>
+                        <c:v>0.12708742888902669</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>5.55678023953661E-2</c:v>
+                        <c:v>0.12059757105531339</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>-0.32588585026822181</c:v>
+                        <c:v>0.13887667870870071</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14309,7 +14323,156 @@
                 <c:smooth val="1"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-7C25-43B7-B2F7-63969E685A13}"/>
+                    <c16:uniqueId val="{00000000-7C25-43B7-B2F7-63969E685A13}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'R2'!$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GM_power</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'R2'!$C$1:$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'R2'!$C$13:$M$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.1598246327971537</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.12959797343676549</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.15607350266604289</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.15257609526549679</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.17266012530111721</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.12526264325483269</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.1104002634308039</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.12687250918231019</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1606246140642936</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.11876564205310761</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5.1960271509487399E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7C25-43B7-B2F7-63969E685A13}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -14320,7 +14483,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'R2'!$B$15</c15:sqref>
@@ -14361,7 +14524,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'R2'!$C$1:$M$1</c15:sqref>
@@ -14409,7 +14572,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'R2'!$C$15:$M$15</c15:sqref>
@@ -14456,7 +14619,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-7C25-43B7-B2F7-63969E685A13}"/>
                   </c:ext>
@@ -14860,23 +15023,24 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>MAE!$B$2</c:f>
+              <c:f>MAE!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GM_exp</c:v>
+                  <c:v>Neural_Net</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -14887,11 +15051,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -14937,183 +15101,56 @@
                   <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MAE!$C$2:$M$2</c:f>
+              <c:f>MAE!$C$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.82078155490136E-2</c:v>
+                  <c:v>6.3144976199999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5627740361387101E-2</c:v>
+                  <c:v>5.5833449700000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6817306047209103E-2</c:v>
+                  <c:v>7.0111692399999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0719840330409098E-2</c:v>
+                  <c:v>7.8538849499999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8298116130936597E-2</c:v>
+                  <c:v>7.1607853299999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4823303696197497E-2</c:v>
+                  <c:v>5.6119232399999899E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1726219514198903E-2</c:v>
+                  <c:v>6.6877780299999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3117399368102503E-2</c:v>
+                  <c:v>8.1824060300000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8442454695956598E-2</c:v>
+                  <c:v>0.11143958899999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10748021553433761</c:v>
+                  <c:v>0.18675037159999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.120684492923483</c:v>
+                  <c:v>0.2265786485999999</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A61-4CBD-8A8A-434B037B05E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MAE!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GM_power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>MAE!$C$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>MAE!$C$3:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>4.7951825972715197E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2628305915074098E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5232519491924703E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6799414634570199E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7372338728006697E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2489543025226902E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.40352403540185E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5963296130482301E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.1438429051916899E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.9976409177007605E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1299456841357961</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0A61-4CBD-8A8A-434B037B05E3}"/>
+              <c16:uniqueId val="{00000002-0A61-4CBD-8A8A-434B037B05E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15131,21 +15168,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>MAE!$B$4</c15:sqref>
+                          <c15:sqref>MAE!$B$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Neural_Net</c:v>
+                        <c:v>GM_exp</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -15153,7 +15190,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -15164,11 +15201,11 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -15227,7 +15264,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>MAE!$C$4:$M$4</c15:sqref>
+                          <c15:sqref>MAE!$C$2:$M$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -15235,37 +15272,37 @@
                       <c:formatCode>0.0000</c:formatCode>
                       <c:ptCount val="11"/>
                       <c:pt idx="0">
-                        <c:v>6.3144976199999994E-2</c:v>
+                        <c:v>4.82078155490136E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.5833449700000003E-2</c:v>
+                        <c:v>4.5627740361387101E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7.0111692399999995E-2</c:v>
+                        <c:v>5.6817306047209103E-2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>7.8538849499999994E-2</c:v>
+                        <c:v>5.0719840330409098E-2</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>7.1607853299999996E-2</c:v>
+                        <c:v>4.8298116130936597E-2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5.6119232399999899E-2</c:v>
+                        <c:v>4.4823303696197497E-2</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6.6877780299999995E-2</c:v>
+                        <c:v>5.1726219514198903E-2</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>8.1824060300000001E-2</c:v>
+                        <c:v>5.3117399368102503E-2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.11143958899999989</c:v>
+                        <c:v>6.8442454695956598E-2</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.18675037159999999</c:v>
+                        <c:v>0.10748021553433761</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.2265786485999999</c:v>
+                        <c:v>0.120684492923483</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15273,7 +15310,156 @@
                 <c:smooth val="1"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-0A61-4CBD-8A8A-434B037B05E3}"/>
+                    <c16:uniqueId val="{00000000-0A61-4CBD-8A8A-434B037B05E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MAE!$B$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GM_power</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MAE!$C$1:$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MAE!$C$3:$M$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>4.7951825972715197E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.2628305915074098E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.5232519491924703E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.6799414634570199E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.7372338728006697E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.2489543025226902E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.40352403540185E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.5963296130482301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.1438429051916899E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.9976409177007605E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.1299456841357961</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-0A61-4CBD-8A8A-434B037B05E3}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -15284,7 +15470,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>MAE!$B$5</c15:sqref>
@@ -15325,7 +15511,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>MAE!$C$1:$M$1</c15:sqref>
@@ -15373,7 +15559,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>MAE!$C$5:$M$5</c15:sqref>
@@ -15420,7 +15606,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0A61-4CBD-8A8A-434B037B05E3}"/>
                   </c:ext>
@@ -15823,23 +16009,24 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>MAE!$B$7</c:f>
+              <c:f>MAE!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GM_exp</c:v>
+                  <c:v>Neural_Net</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -15850,11 +16037,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -15900,183 +16087,56 @@
                   <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MAE!$C$7:$M$7</c:f>
+              <c:f>MAE!$C$9:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.9309986353267997E-3</c:v>
+                  <c:v>1.2657120690000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0214621998808401E-2</c:v>
+                  <c:v>1.6763005399999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0375115169728701E-2</c:v>
+                  <c:v>1.8819131199999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1223321016391801E-2</c:v>
+                  <c:v>1.7088571599999901E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1621571088858799E-2</c:v>
+                  <c:v>2.1619476700000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1918079761257401E-2</c:v>
+                  <c:v>2.16247891999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2544674022807401E-2</c:v>
+                  <c:v>2.23227046E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1953439658218599E-2</c:v>
+                  <c:v>2.04234979E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6104213883986002E-2</c:v>
+                  <c:v>4.0722084199999897E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6233215683518E-2</c:v>
+                  <c:v>8.7045926800000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0190335881322502E-2</c:v>
+                  <c:v>0.1112948892</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FD4F-4A9E-B6DF-2B079B1702AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MAE!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GM_power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>MAE!$C$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>MAE!$C$8:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>7.9244107351956992E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.02273404740748E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0281972946388499E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.12347861877811E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1673955026431201E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.20146147564458E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.25969613181704E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1977538249943E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6057833159432999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5895725312378399E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.9759673257720202E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FD4F-4A9E-B6DF-2B079B1702AE}"/>
+              <c16:uniqueId val="{00000002-FD4F-4A9E-B6DF-2B079B1702AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16094,21 +16154,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>MAE!$B$9</c15:sqref>
+                          <c15:sqref>MAE!$B$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Neural_Net</c:v>
+                        <c:v>GM_exp</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -16116,7 +16176,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -16127,11 +16187,11 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -16190,7 +16250,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>MAE!$C$9:$M$9</c15:sqref>
+                          <c15:sqref>MAE!$C$7:$M$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -16198,37 +16258,37 @@
                       <c:formatCode>0.0000</c:formatCode>
                       <c:ptCount val="11"/>
                       <c:pt idx="0">
-                        <c:v>1.2657120690000001E-2</c:v>
+                        <c:v>7.9309986353267997E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.6763005399999999E-2</c:v>
+                        <c:v>1.0214621998808401E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.8819131199999999E-2</c:v>
+                        <c:v>1.0375115169728701E-2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.7088571599999901E-2</c:v>
+                        <c:v>1.1223321016391801E-2</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2.1619476700000001E-2</c:v>
+                        <c:v>1.1621571088858799E-2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>2.16247891999999E-2</c:v>
+                        <c:v>1.1918079761257401E-2</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2.23227046E-2</c:v>
+                        <c:v>1.2544674022807401E-2</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2.04234979E-2</c:v>
+                        <c:v>1.1953439658218599E-2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>4.0722084199999897E-2</c:v>
+                        <c:v>1.6104213883986002E-2</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>8.7045926800000006E-2</c:v>
+                        <c:v>2.6233215683518E-2</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.1112948892</c:v>
+                        <c:v>4.0190335881322502E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16236,7 +16296,156 @@
                 <c:smooth val="1"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-FD4F-4A9E-B6DF-2B079B1702AE}"/>
+                    <c16:uniqueId val="{00000000-FD4F-4A9E-B6DF-2B079B1702AE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MAE!$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GM_power</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MAE!$C$1:$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MAE!$C$8:$M$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>7.9244107351956992E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.02273404740748E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.0281972946388499E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.12347861877811E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.1673955026431201E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.20146147564458E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.25969613181704E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.1977538249943E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.6057833159432999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.5895725312378399E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3.9759673257720202E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-FD4F-4A9E-B6DF-2B079B1702AE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -16247,7 +16456,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>MAE!$B$10</c15:sqref>
@@ -16288,7 +16497,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>MAE!$C$1:$M$1</c15:sqref>
@@ -16336,7 +16545,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>MAE!$C$10:$M$10</c15:sqref>
@@ -16383,7 +16592,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-FD4F-4A9E-B6DF-2B079B1702AE}"/>
                   </c:ext>
@@ -16786,23 +16995,24 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>MAE!$B$12</c:f>
+              <c:f>MAE!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GM_exp</c:v>
+                  <c:v>Neural_Net</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -16813,11 +17023,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -16863,183 +17073,56 @@
                   <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MAE!$C$12:$M$12</c:f>
+              <c:f>MAE!$C$14:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.2094530278295001E-3</c:v>
+                  <c:v>3.8373563699999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6018910281802999E-3</c:v>
+                  <c:v>4.3695474499999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6369129851846001E-3</c:v>
+                  <c:v>4.2803539699998996E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7733676159438E-3</c:v>
+                  <c:v>4.1965182499999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7076928912569002E-3</c:v>
+                  <c:v>5.4151701E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5331065244239004E-3</c:v>
+                  <c:v>6.3723409500000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7766388118856999E-3</c:v>
+                  <c:v>6.8087062700000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8885387733780999E-3</c:v>
+                  <c:v>8.31050025E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7941953664770998E-3</c:v>
+                  <c:v>1.184669053E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3418926102301E-3</c:v>
+                  <c:v>1.74808820999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.10296253290943E-2</c:v>
+                  <c:v>2.9125899199999999E-2</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6A4-461E-9AD8-486D145C5E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MAE!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GM_power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>MAE!$C$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>MAE!$C$13:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.2354351122041002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6369748337684998E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6649055419984001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7832302040198E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7229882489737002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5921974399301003E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.8773131337292996E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.9594970389225E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.8343983772032992E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.4981077422578997E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.12626622952171E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B6A4-461E-9AD8-486D145C5E7A}"/>
+              <c16:uniqueId val="{00000002-B6A4-461E-9AD8-486D145C5E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17057,21 +17140,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>MAE!$B$14</c15:sqref>
+                          <c15:sqref>MAE!$B$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Neural_Net</c:v>
+                        <c:v>GM_exp</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -17079,7 +17162,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -17090,11 +17173,11 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -17153,7 +17236,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>MAE!$C$14:$M$14</c15:sqref>
+                          <c15:sqref>MAE!$C$12:$M$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -17161,37 +17244,37 @@
                       <c:formatCode>0.0000</c:formatCode>
                       <c:ptCount val="11"/>
                       <c:pt idx="0">
-                        <c:v>3.8373563699999999E-3</c:v>
+                        <c:v>2.2094530278295001E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.3695474499999996E-3</c:v>
+                        <c:v>2.6018910281802999E-3</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4.2803539699998996E-3</c:v>
+                        <c:v>2.6369129851846001E-3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>4.1965182499999996E-3</c:v>
+                        <c:v>2.7733676159438E-3</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>5.4151701E-3</c:v>
+                        <c:v>3.7076928912569002E-3</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>6.3723409500000003E-3</c:v>
+                        <c:v>4.5331065244239004E-3</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6.8087062700000001E-3</c:v>
+                        <c:v>4.7766388118856999E-3</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>8.31050025E-3</c:v>
+                        <c:v>5.8885387733780999E-3</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1.184669053E-2</c:v>
+                        <c:v>7.7941953664770998E-3</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>1.74808820999999E-2</c:v>
+                        <c:v>9.3418926102301E-3</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>2.9125899199999999E-2</c:v>
+                        <c:v>1.10296253290943E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17199,7 +17282,156 @@
                 <c:smooth val="1"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-B6A4-461E-9AD8-486D145C5E7A}"/>
+                    <c16:uniqueId val="{00000000-B6A4-461E-9AD8-486D145C5E7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MAE!$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GM_power</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MAE!$C$1:$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MAE!$C$13:$M$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>2.2354351122041002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.6369748337684998E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.6649055419984001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.7832302040198E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.7229882489737002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.5921974399301003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.8773131337292996E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.9594970389225E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.8343983772032992E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.4981077422578997E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.12626622952171E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-B6A4-461E-9AD8-486D145C5E7A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -17210,7 +17442,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>MAE!$B$15</c15:sqref>
@@ -17251,7 +17483,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>MAE!$C$1:$M$1</c15:sqref>
@@ -17299,7 +17531,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>MAE!$C$15:$M$15</c15:sqref>
@@ -17346,7 +17578,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-B6A4-461E-9AD8-486D145C5E7A}"/>
                   </c:ext>
@@ -28632,8 +28864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC29" sqref="BC29"/>
+    <sheetView topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4:AR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28888,41 +29120,41 @@
       <c r="AF5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AG5" s="12" t="s">
-        <v>0</v>
+      <c r="AG5" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="AH5" s="2">
-        <v>0.74869539961637488</v>
+        <v>0.63481076285573723</v>
       </c>
       <c r="AI5" s="2">
-        <v>0.73077655329582059</v>
+        <v>0.6541267060110949</v>
       </c>
       <c r="AJ5" s="2">
-        <v>0.8204788513682908</v>
+        <v>0.70216411582616733</v>
       </c>
       <c r="AK5" s="2">
-        <v>0.75315999028516722</v>
+        <v>0.34736224714800917</v>
       </c>
       <c r="AL5" s="2">
-        <v>0.77162249316807185</v>
+        <v>0.52417352947329809</v>
       </c>
       <c r="AM5" s="2">
-        <v>0.73145582004597132</v>
+        <v>0.62643584156388432</v>
       </c>
       <c r="AN5" s="2">
-        <v>0.77838837160564123</v>
+        <v>0.63479648346822193</v>
       </c>
       <c r="AO5" s="2">
-        <v>0.75992828672324042</v>
+        <v>0.43941579821195298</v>
       </c>
       <c r="AP5" s="2">
-        <v>0.72482537859784346</v>
+        <v>0.42876136728925929</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0.77179962615022557</v>
-      </c>
-      <c r="AR5" s="8">
-        <v>0.74723118355080198</v>
+        <v>0.36954034588672108</v>
+      </c>
+      <c r="AR5" s="10">
+        <v>1.03625134926402E-2</v>
       </c>
     </row>
     <row r="6" spans="1:44" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -28940,45 +29172,21 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>0.74655271722875893</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>0.77697859263215263</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>0.81061794444514668</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>0.77990401254864872</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>0.77670366840327676</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>0.74962755104345757</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>0.73714933573089492</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>0.70721655851074749</v>
-      </c>
-      <c r="AP6" s="3">
-        <v>0.6717100850149893</v>
-      </c>
-      <c r="AQ6" s="3">
-        <v>0.81108567701228262</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>0.57406356108714229</v>
-      </c>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
     </row>
-    <row r="7" spans="1:44" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
@@ -29019,21 +29227,47 @@
         <v>0.91902308183936843</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
+      <c r="AF7" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="24">
+        <v>0.86939407607889285</v>
+      </c>
+      <c r="AI7" s="24">
+        <v>0.85640862199950696</v>
+      </c>
+      <c r="AJ7" s="24">
+        <v>0.86609912371465791</v>
+      </c>
+      <c r="AK7" s="24">
+        <v>0.79954868224202369</v>
+      </c>
+      <c r="AL7" s="24">
+        <v>0.86191523684812432</v>
+      </c>
+      <c r="AM7" s="24">
+        <v>0.88098425928853474</v>
+      </c>
+      <c r="AN7" s="24">
+        <v>0.86592637728216193</v>
+      </c>
+      <c r="AO7" s="24">
+        <v>0.82537915104259463</v>
+      </c>
+      <c r="AP7" s="24">
+        <v>0.80535901231235596</v>
+      </c>
+      <c r="AQ7" s="24">
+        <v>0.46484075145724868</v>
+      </c>
+      <c r="AR7" s="25">
+        <v>4.6772373742857004E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
@@ -29072,45 +29306,19 @@
         <v>0.92094053605825799</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="AF8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="19">
-        <v>0.91739137425684825</v>
-      </c>
-      <c r="AI8" s="19">
-        <v>0.9044129292452292</v>
-      </c>
-      <c r="AJ8" s="19">
-        <v>0.91755237254150102</v>
-      </c>
-      <c r="AK8" s="19">
-        <v>0.89247578678433614</v>
-      </c>
-      <c r="AL8" s="19">
-        <v>0.92516492932663341</v>
-      </c>
-      <c r="AM8" s="19">
-        <v>0.92618425025520579</v>
-      </c>
-      <c r="AN8" s="19">
-        <v>0.93788393882293364</v>
-      </c>
-      <c r="AO8" s="19">
-        <v>0.917691965884882</v>
-      </c>
-      <c r="AP8" s="19">
-        <v>0.92677238124374517</v>
-      </c>
-      <c r="AQ8" s="19">
-        <v>0.89561448040547142</v>
-      </c>
-      <c r="AR8" s="20">
-        <v>0.91902308183936843</v>
-      </c>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
@@ -29151,42 +29359,44 @@
         <v>4.6772373742857004E-3</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="AF9" s="16"/>
+      <c r="AF9" s="70" t="s">
+        <v>5</v>
+      </c>
       <c r="AG9" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="22">
-        <v>0.91983201327266717</v>
-      </c>
-      <c r="AI9" s="22">
-        <v>0.90551014152261999</v>
-      </c>
-      <c r="AJ9" s="22">
-        <v>0.92004455255118955</v>
-      </c>
-      <c r="AK9" s="22">
-        <v>0.8911759758249499</v>
-      </c>
-      <c r="AL9" s="22">
-        <v>0.92561571575971757</v>
-      </c>
-      <c r="AM9" s="22">
-        <v>0.92619964536303157</v>
-      </c>
-      <c r="AN9" s="22">
-        <v>0.93703540920082984</v>
-      </c>
-      <c r="AO9" s="22">
-        <v>0.92112617749427439</v>
-      </c>
-      <c r="AP9" s="22">
-        <v>0.92671050998646443</v>
-      </c>
-      <c r="AQ9" s="22">
-        <v>0.90185020639397462</v>
-      </c>
-      <c r="AR9" s="23">
-        <v>0.92094053605825799</v>
+        <v>2</v>
+      </c>
+      <c r="AH9" s="24">
+        <v>0.31392127620528337</v>
+      </c>
+      <c r="AI9" s="24">
+        <v>0.31487076042814999</v>
+      </c>
+      <c r="AJ9" s="24">
+        <v>0.32282486540779909</v>
+      </c>
+      <c r="AK9" s="24">
+        <v>0.3274508537085975</v>
+      </c>
+      <c r="AL9" s="24">
+        <v>0.30508062060331359</v>
+      </c>
+      <c r="AM9" s="24">
+        <v>0.31642658225183001</v>
+      </c>
+      <c r="AN9" s="24">
+        <v>0.25677682519084433</v>
+      </c>
+      <c r="AO9" s="24">
+        <v>0.27883241238044632</v>
+      </c>
+      <c r="AP9" s="24">
+        <v>0.19062457599943691</v>
+      </c>
+      <c r="AQ9" s="24">
+        <v>5.55678023953661E-2</v>
+      </c>
+      <c r="AR9" s="25">
+        <v>-0.32588585026822181</v>
       </c>
     </row>
     <row r="10" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -29228,7 +29438,7 @@
         <v>0.87545199625746195</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="AF10" s="6"/>
+      <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -29257,45 +29467,6 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="AF11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG11" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="19">
-        <v>0.1215948513377715</v>
-      </c>
-      <c r="AI11" s="19">
-        <v>0.1192185777980584</v>
-      </c>
-      <c r="AJ11" s="19">
-        <v>0.12970200498338719</v>
-      </c>
-      <c r="AK11" s="19">
-        <v>0.12140626384261791</v>
-      </c>
-      <c r="AL11" s="19">
-        <v>0.1147116533726581</v>
-      </c>
-      <c r="AM11" s="19">
-        <v>0.1241342406664529</v>
-      </c>
-      <c r="AN11" s="19">
-        <v>0.1137210225752876</v>
-      </c>
-      <c r="AO11" s="19">
-        <v>0.13576775994652579</v>
-      </c>
-      <c r="AP11" s="19">
-        <v>0.12708742888902669</v>
-      </c>
-      <c r="AQ11" s="19">
-        <v>0.12059757105531339</v>
-      </c>
-      <c r="AR11" s="20">
-        <v>0.13887667870870071</v>
-      </c>
     </row>
     <row r="12" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -29338,43 +29509,6 @@
         <v>0.13887667870870071</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="22">
-        <v>0.1598246327971537</v>
-      </c>
-      <c r="AI12" s="22">
-        <v>0.12959797343676549</v>
-      </c>
-      <c r="AJ12" s="22">
-        <v>0.15607350266604289</v>
-      </c>
-      <c r="AK12" s="22">
-        <v>0.15257609526549679</v>
-      </c>
-      <c r="AL12" s="22">
-        <v>0.17266012530111721</v>
-      </c>
-      <c r="AM12" s="22">
-        <v>0.12526264325483269</v>
-      </c>
-      <c r="AN12" s="22">
-        <v>0.1104002634308039</v>
-      </c>
-      <c r="AO12" s="22">
-        <v>0.12687250918231019</v>
-      </c>
-      <c r="AP12" s="22">
-        <v>0.1606246140642936</v>
-      </c>
-      <c r="AQ12" s="22">
-        <v>0.11876564205310761</v>
-      </c>
-      <c r="AR12" s="23">
-        <v>5.1960271509487399E-2</v>
-      </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
@@ -29555,8 +29689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A3CB66-0FF4-4299-B45B-CCA4CAAC5EF5}">
   <dimension ref="A1:AI31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:AI10"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29731,41 +29865,41 @@
       <c r="W3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="12" t="s">
-        <v>0</v>
+      <c r="X3" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="Y3" s="34">
-        <v>4.82078155490136E-2</v>
+        <v>6.3144976199999994E-2</v>
       </c>
       <c r="Z3" s="34">
-        <v>4.5627740361387101E-2</v>
+        <v>5.5833449700000003E-2</v>
       </c>
       <c r="AA3" s="34">
-        <v>5.6817306047209103E-2</v>
+        <v>7.0111692399999995E-2</v>
       </c>
       <c r="AB3" s="34">
-        <v>5.0719840330409098E-2</v>
+        <v>7.8538849499999994E-2</v>
       </c>
       <c r="AC3" s="34">
-        <v>4.8298116130936597E-2</v>
+        <v>7.1607853299999996E-2</v>
       </c>
       <c r="AD3" s="34">
-        <v>4.4823303696197497E-2</v>
+        <v>5.6119232399999899E-2</v>
       </c>
       <c r="AE3" s="34">
-        <v>5.1726219514198903E-2</v>
+        <v>6.6877780299999995E-2</v>
       </c>
       <c r="AF3" s="34">
-        <v>5.3117399368102503E-2</v>
+        <v>8.1824060300000001E-2</v>
       </c>
       <c r="AG3" s="34">
-        <v>6.8442454695956598E-2</v>
+        <v>0.11143958899999989</v>
       </c>
       <c r="AH3" s="34">
-        <v>0.10748021553433761</v>
-      </c>
-      <c r="AI3" s="35">
-        <v>0.120684492923483</v>
+        <v>0.18675037159999999</v>
+      </c>
+      <c r="AI3" s="38">
+        <v>0.2265786485999999</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
@@ -29808,42 +29942,18 @@
       </c>
       <c r="N4" s="4"/>
       <c r="W4" s="16"/>
-      <c r="X4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="36">
-        <v>4.7951825972715197E-2</v>
-      </c>
-      <c r="Z4" s="36">
-        <v>4.2628305915074098E-2</v>
-      </c>
-      <c r="AA4" s="36">
-        <v>5.5232519491924703E-2</v>
-      </c>
-      <c r="AB4" s="36">
-        <v>4.6799414634570199E-2</v>
-      </c>
-      <c r="AC4" s="36">
-        <v>4.7372338728006697E-2</v>
-      </c>
-      <c r="AD4" s="36">
-        <v>4.2489543025226902E-2</v>
-      </c>
-      <c r="AE4" s="36">
-        <v>5.40352403540185E-2</v>
-      </c>
-      <c r="AF4" s="36">
-        <v>5.5963296130482301E-2</v>
-      </c>
-      <c r="AG4" s="36">
-        <v>7.1438429051916899E-2</v>
-      </c>
-      <c r="AH4" s="36">
-        <v>9.9976409177007605E-2</v>
-      </c>
-      <c r="AI4" s="37">
-        <v>0.1299456841357961</v>
-      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
     </row>
     <row r="5" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
@@ -29884,19 +29994,45 @@
         <v>8.1797565078551002E-2</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
+      <c r="W5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="46">
+        <v>1.2657120690000001E-2</v>
+      </c>
+      <c r="Z5" s="46">
+        <v>1.6763005399999999E-2</v>
+      </c>
+      <c r="AA5" s="46">
+        <v>1.8819131199999999E-2</v>
+      </c>
+      <c r="AB5" s="46">
+        <v>1.7088571599999901E-2</v>
+      </c>
+      <c r="AC5" s="46">
+        <v>2.1619476700000001E-2</v>
+      </c>
+      <c r="AD5" s="46">
+        <v>2.16247891999999E-2</v>
+      </c>
+      <c r="AE5" s="46">
+        <v>2.23227046E-2</v>
+      </c>
+      <c r="AF5" s="46">
+        <v>2.04234979E-2</v>
+      </c>
+      <c r="AG5" s="46">
+        <v>4.0722084199999897E-2</v>
+      </c>
+      <c r="AH5" s="46">
+        <v>8.7045926800000006E-2</v>
+      </c>
+      <c r="AI5" s="47">
+        <v>0.1112948892</v>
+      </c>
     </row>
     <row r="6" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -29913,45 +30049,19 @@
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
       <c r="N6" s="4"/>
-      <c r="W6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="X6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="42">
-        <v>7.9309986353267997E-3</v>
-      </c>
-      <c r="Z6" s="42">
-        <v>1.0214621998808401E-2</v>
-      </c>
-      <c r="AA6" s="42">
-        <v>1.0375115169728701E-2</v>
-      </c>
-      <c r="AB6" s="42">
-        <v>1.1223321016391801E-2</v>
-      </c>
-      <c r="AC6" s="42">
-        <v>1.1621571088858799E-2</v>
-      </c>
-      <c r="AD6" s="42">
-        <v>1.1918079761257401E-2</v>
-      </c>
-      <c r="AE6" s="42">
-        <v>1.2544674022807401E-2</v>
-      </c>
-      <c r="AF6" s="42">
-        <v>1.1953439658218599E-2</v>
-      </c>
-      <c r="AG6" s="42">
-        <v>1.6104213883986002E-2</v>
-      </c>
-      <c r="AH6" s="42">
-        <v>2.6233215683518E-2</v>
-      </c>
-      <c r="AI6" s="43">
-        <v>4.0190335881322502E-2</v>
-      </c>
+      <c r="W6" s="16"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
@@ -29994,45 +30104,47 @@
         <v>4.0190335881322502E-2</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="W7" s="16"/>
+      <c r="W7" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="X7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="44">
-        <v>7.9244107351956992E-3</v>
-      </c>
-      <c r="Z7" s="44">
-        <v>1.02273404740748E-2</v>
-      </c>
-      <c r="AA7" s="44">
-        <v>1.0281972946388499E-2</v>
-      </c>
-      <c r="AB7" s="44">
-        <v>1.12347861877811E-2</v>
-      </c>
-      <c r="AC7" s="44">
-        <v>1.1673955026431201E-2</v>
-      </c>
-      <c r="AD7" s="44">
-        <v>1.20146147564458E-2</v>
-      </c>
-      <c r="AE7" s="44">
-        <v>1.25969613181704E-2</v>
-      </c>
-      <c r="AF7" s="44">
-        <v>1.1977538249943E-2</v>
-      </c>
-      <c r="AG7" s="44">
-        <v>1.6057833159432999E-2</v>
-      </c>
-      <c r="AH7" s="44">
-        <v>2.5895725312378399E-2</v>
-      </c>
-      <c r="AI7" s="45">
-        <v>3.9759673257720202E-2</v>
+        <v>2</v>
+      </c>
+      <c r="Y7" s="46">
+        <v>3.8373563699999999E-3</v>
+      </c>
+      <c r="Z7" s="46">
+        <v>4.3695474499999996E-3</v>
+      </c>
+      <c r="AA7" s="46">
+        <v>4.2803539699998996E-3</v>
+      </c>
+      <c r="AB7" s="46">
+        <v>4.1965182499999996E-3</v>
+      </c>
+      <c r="AC7" s="46">
+        <v>5.4151701E-3</v>
+      </c>
+      <c r="AD7" s="46">
+        <v>6.3723409500000003E-3</v>
+      </c>
+      <c r="AE7" s="46">
+        <v>6.8087062700000001E-3</v>
+      </c>
+      <c r="AF7" s="46">
+        <v>8.31050025E-3</v>
+      </c>
+      <c r="AG7" s="46">
+        <v>1.184669053E-2</v>
+      </c>
+      <c r="AH7" s="46">
+        <v>1.74808820999999E-2</v>
+      </c>
+      <c r="AI7" s="47">
+        <v>2.9125899199999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
@@ -30071,21 +30183,21 @@
         <v>3.9759673257720202E-2</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="W8" s="16"/>
+      <c r="W8" s="4"/>
       <c r="X8" s="4"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
     </row>
-    <row r="9" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="21" t="s">
         <v>2</v>
@@ -30124,45 +30236,6 @@
         <v>0.1112948892</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="W9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="42">
-        <v>2.2094530278295001E-3</v>
-      </c>
-      <c r="Z9" s="42">
-        <v>2.6018910281802999E-3</v>
-      </c>
-      <c r="AA9" s="42">
-        <v>2.6369129851846001E-3</v>
-      </c>
-      <c r="AB9" s="42">
-        <v>2.7733676159438E-3</v>
-      </c>
-      <c r="AC9" s="42">
-        <v>3.7076928912569002E-3</v>
-      </c>
-      <c r="AD9" s="42">
-        <v>4.5331065244239004E-3</v>
-      </c>
-      <c r="AE9" s="42">
-        <v>4.7766388118856999E-3</v>
-      </c>
-      <c r="AF9" s="42">
-        <v>5.8885387733780999E-3</v>
-      </c>
-      <c r="AG9" s="42">
-        <v>7.7941953664770998E-3</v>
-      </c>
-      <c r="AH9" s="42">
-        <v>9.3418926102301E-3</v>
-      </c>
-      <c r="AI9" s="43">
-        <v>1.10296253290943E-2</v>
-      </c>
     </row>
     <row r="10" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
@@ -30203,43 +30276,6 @@
         <v>1.6409172835681399E-2</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="44">
-        <v>2.2354351122041002E-3</v>
-      </c>
-      <c r="Z10" s="44">
-        <v>2.6369748337684998E-3</v>
-      </c>
-      <c r="AA10" s="44">
-        <v>2.6649055419984001E-3</v>
-      </c>
-      <c r="AB10" s="44">
-        <v>2.7832302040198E-3</v>
-      </c>
-      <c r="AC10" s="44">
-        <v>3.7229882489737002E-3</v>
-      </c>
-      <c r="AD10" s="44">
-        <v>4.5921974399301003E-3</v>
-      </c>
-      <c r="AE10" s="44">
-        <v>4.8773131337292996E-3</v>
-      </c>
-      <c r="AF10" s="44">
-        <v>5.9594970389225E-3</v>
-      </c>
-      <c r="AG10" s="44">
-        <v>7.8343983772032992E-3</v>
-      </c>
-      <c r="AH10" s="44">
-        <v>9.4981077422578997E-3</v>
-      </c>
-      <c r="AI10" s="45">
-        <v>1.12626622952171E-2</v>
-      </c>
     </row>
     <row r="11" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
@@ -30672,8 +30708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8486C392-0A03-4ABC-925E-4518EE940F45}">
   <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:AI11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30909,41 +30945,41 @@
       <c r="W4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="12" t="s">
-        <v>0</v>
+      <c r="X4" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="Y4" s="34">
-        <v>0.26255453010217422</v>
+        <v>7.2911809899999002E-3</v>
       </c>
       <c r="Z4" s="34">
-        <v>0.25588924904304039</v>
+        <v>5.9464994000000002E-3</v>
       </c>
       <c r="AA4" s="34">
-        <v>0.28164320747939048</v>
+        <v>1.0010202229999999E-2</v>
       </c>
       <c r="AB4" s="34">
-        <v>0.26668071263813592</v>
+        <v>1.304606891E-2</v>
       </c>
       <c r="AC4" s="34">
-        <v>0.26181662991758908</v>
+        <v>1.24645997199999E-2</v>
       </c>
       <c r="AD4" s="34">
-        <v>0.25293592229673489</v>
+        <v>5.8072649799999002E-3</v>
       </c>
       <c r="AE4" s="34">
-        <v>0.27447794582895402</v>
+        <v>9.51356301E-3</v>
       </c>
       <c r="AF4" s="34">
-        <v>0.2732280359298519</v>
+        <v>1.424377242E-2</v>
       </c>
       <c r="AG4" s="34">
-        <v>0.31432190815635591</v>
+        <v>2.7741699799999998E-2</v>
       </c>
       <c r="AH4" s="34">
-        <v>0.3844243915044076</v>
-      </c>
-      <c r="AI4" s="35">
-        <v>0.406917037669147</v>
+        <v>0.13147457055</v>
+      </c>
+      <c r="AI4" s="38">
+        <v>0.16399405653999999</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -30992,43 +31028,19 @@
       <c r="T5" s="54"/>
       <c r="U5" s="54"/>
       <c r="V5" s="54"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="36">
-        <v>0.26354992658429738</v>
-      </c>
-      <c r="Z5" s="36">
-        <v>0.2459144279315551</v>
-      </c>
-      <c r="AA5" s="36">
-        <v>0.2856614799310665</v>
-      </c>
-      <c r="AB5" s="36">
-        <v>0.2576056607517867</v>
-      </c>
-      <c r="AC5" s="36">
-        <v>0.26185467228614201</v>
-      </c>
-      <c r="AD5" s="36">
-        <v>0.2462263878782586</v>
-      </c>
-      <c r="AE5" s="36">
-        <v>0.28477271296293749</v>
-      </c>
-      <c r="AF5" s="36">
-        <v>0.28740392891287009</v>
-      </c>
-      <c r="AG5" s="36">
-        <v>0.3257592134169115</v>
-      </c>
-      <c r="AH5" s="36">
-        <v>0.36869076965250308</v>
-      </c>
-      <c r="AI5" s="37">
-        <v>0.43737742267704249</v>
-      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -31052,21 +31064,47 @@
       <c r="T6" s="54"/>
       <c r="U6" s="54"/>
       <c r="V6" s="54"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
+      <c r="W6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="46">
+        <v>6.9180586000000001E-4</v>
+      </c>
+      <c r="Z6" s="46">
+        <v>1.1200767329999999E-3</v>
+      </c>
+      <c r="AA6" s="46">
+        <v>1.4638981810000001E-3</v>
+      </c>
+      <c r="AB6" s="46">
+        <v>1.599258038E-3</v>
+      </c>
+      <c r="AC6" s="46">
+        <v>2.5209902609998999E-3</v>
+      </c>
+      <c r="AD6" s="46">
+        <v>1.747938681E-3</v>
+      </c>
+      <c r="AE6" s="46">
+        <v>2.7470825280000001E-3</v>
+      </c>
+      <c r="AF6" s="46">
+        <v>2.0482382289999002E-3</v>
+      </c>
+      <c r="AG6" s="46">
+        <v>1.5178175733E-2</v>
+      </c>
+      <c r="AH6" s="46">
+        <v>3.09456518799999E-2</v>
+      </c>
+      <c r="AI6" s="47">
+        <v>8.9935211249999994E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
@@ -31114,47 +31152,21 @@
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
       <c r="V7" s="64"/>
-      <c r="W7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="X7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="42">
-        <v>0.13147606604185691</v>
-      </c>
-      <c r="Z7" s="42">
-        <v>0.1539913361597004</v>
-      </c>
-      <c r="AA7" s="42">
-        <v>0.1565234345817243</v>
-      </c>
-      <c r="AB7" s="42">
-        <v>0.1551905170381066</v>
-      </c>
-      <c r="AC7" s="42">
-        <v>0.16174391807995389</v>
-      </c>
-      <c r="AD7" s="42">
-        <v>0.16827802332887151</v>
-      </c>
-      <c r="AE7" s="42">
-        <v>0.16637791210614611</v>
-      </c>
-      <c r="AF7" s="42">
-        <v>0.1651519145690534</v>
-      </c>
-      <c r="AG7" s="42">
-        <v>0.19022656169394539</v>
-      </c>
-      <c r="AH7" s="42">
-        <v>0.23779749568365069</v>
-      </c>
-      <c r="AI7" s="43">
-        <v>0.26651148677659808</v>
-      </c>
+      <c r="W7" s="6"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
@@ -31200,45 +31212,47 @@
       <c r="T8" s="55"/>
       <c r="U8" s="55"/>
       <c r="V8" s="55"/>
-      <c r="W8" s="16"/>
+      <c r="W8" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="X8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="44">
-        <v>0.13116816436149581</v>
-      </c>
-      <c r="Z8" s="44">
-        <v>0.1536481188455141</v>
-      </c>
-      <c r="AA8" s="44">
-        <v>0.15700014306360621</v>
-      </c>
-      <c r="AB8" s="44">
-        <v>0.15609261360557899</v>
-      </c>
-      <c r="AC8" s="44">
-        <v>0.16137685799881291</v>
-      </c>
-      <c r="AD8" s="44">
-        <v>0.1694919748812487</v>
-      </c>
-      <c r="AE8" s="44">
-        <v>0.1674258946950562</v>
-      </c>
-      <c r="AF8" s="44">
-        <v>0.1645131479560365</v>
-      </c>
-      <c r="AG8" s="44">
-        <v>0.1909204737999407</v>
-      </c>
-      <c r="AH8" s="44">
-        <v>0.2347972943644358</v>
-      </c>
-      <c r="AI8" s="45">
-        <v>0.26523567556447952</v>
+        <v>2</v>
+      </c>
+      <c r="Y8" s="60">
+        <v>1.26310951E-4</v>
+      </c>
+      <c r="Z8" s="60">
+        <v>1.79093072E-4</v>
+      </c>
+      <c r="AA8" s="60">
+        <v>1.5516943639999999E-4</v>
+      </c>
+      <c r="AB8" s="60">
+        <v>1.8518260880000001E-4</v>
+      </c>
+      <c r="AC8" s="60">
+        <v>3.4677497999999998E-4</v>
+      </c>
+      <c r="AD8" s="60">
+        <v>3.4690725499999999E-4</v>
+      </c>
+      <c r="AE8" s="60">
+        <v>6.3310744100000002E-4</v>
+      </c>
+      <c r="AF8" s="60">
+        <v>7.4257898899999998E-4</v>
+      </c>
+      <c r="AG8" s="60">
+        <v>2.0528618959999999E-3</v>
+      </c>
+      <c r="AH8" s="60">
+        <v>1.805163885E-3</v>
+      </c>
+      <c r="AI8" s="61">
+        <v>3.6330289199999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="21" t="s">
         <v>2</v>
@@ -31284,7 +31298,7 @@
       <c r="T9" s="55"/>
       <c r="U9" s="55"/>
       <c r="V9" s="55"/>
-      <c r="W9" s="6"/>
+      <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
@@ -31298,7 +31312,7 @@
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
     </row>
-    <row r="10" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="26" t="s">
         <v>3</v>
@@ -31344,45 +31358,6 @@
       <c r="T10" s="55"/>
       <c r="U10" s="55"/>
       <c r="V10" s="55"/>
-      <c r="W10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="56">
-        <v>0.10336696960885119</v>
-      </c>
-      <c r="Z10" s="56">
-        <v>0.1156965705825608</v>
-      </c>
-      <c r="AA10" s="56">
-        <v>0.10906652400070579</v>
-      </c>
-      <c r="AB10" s="56">
-        <v>0.1152626660202152</v>
-      </c>
-      <c r="AC10" s="56">
-        <v>0.1336324885524118</v>
-      </c>
-      <c r="AD10" s="56">
-        <v>0.14055351834616711</v>
-      </c>
-      <c r="AE10" s="56">
-        <v>0.14996537349941519</v>
-      </c>
-      <c r="AF10" s="56">
-        <v>0.1580790017394266</v>
-      </c>
-      <c r="AG10" s="56">
-        <v>0.1930533208957782</v>
-      </c>
-      <c r="AH10" s="56">
-        <v>0.20919110855390799</v>
-      </c>
-      <c r="AI10" s="57">
-        <v>0.22890915638408371</v>
-      </c>
     </row>
     <row r="11" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
@@ -31406,43 +31381,6 @@
       <c r="T11" s="55"/>
       <c r="U11" s="55"/>
       <c r="V11" s="55"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="58">
-        <v>0.1022311950791885</v>
-      </c>
-      <c r="Z11" s="58">
-        <v>0.1152583016607767</v>
-      </c>
-      <c r="AA11" s="58">
-        <v>0.1083253652032031</v>
-      </c>
-      <c r="AB11" s="58">
-        <v>0.1140991201984093</v>
-      </c>
-      <c r="AC11" s="58">
-        <v>0.1315135478214231</v>
-      </c>
-      <c r="AD11" s="58">
-        <v>0.14009382103893919</v>
-      </c>
-      <c r="AE11" s="58">
-        <v>0.15013351418694029</v>
-      </c>
-      <c r="AF11" s="58">
-        <v>0.15811101309912931</v>
-      </c>
-      <c r="AG11" s="58">
-        <v>0.1907449898866187</v>
-      </c>
-      <c r="AH11" s="58">
-        <v>0.2083833231996603</v>
-      </c>
-      <c r="AI11" s="59">
-        <v>0.2313035466368292</v>
-      </c>
     </row>
     <row r="12" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
